--- a/medicine/Psychotrope/Arvine/Arvine.xlsx
+++ b/medicine/Psychotrope/Arvine/Arvine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'arvine, ou petite arvine (la grande arvine existe également mais n'est plus cultivée que de manière confidentielle), est un cépage autochtone de vigne blanc originaire et cultivé dans la Vallée d'Aoste (Italie) ainsi qu'en Valais (Suisse). En 2021, il y a 243 hectares cultivés en Valais (principalement dans le Valais romand), où sa surface est en croissance[1]. La petite arvine est devenue en 2021 le cinquième cépage blanc le plus cultivé en Suisse, dépassant le pinot gris.
+L'arvine, ou petite arvine (la grande arvine existe également mais n'est plus cultivée que de manière confidentielle), est un cépage autochtone de vigne blanc originaire et cultivé dans la Vallée d'Aoste (Italie) ainsi qu'en Valais (Suisse). En 2021, il y a 243 hectares cultivés en Valais (principalement dans le Valais romand), où sa surface est en croissance. La petite arvine est devenue en 2021 le cinquième cépage blanc le plus cultivé en Suisse, dépassant le pinot gris.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La petite arvine est un cépage de 3e époque : il mûrit tardivement. Le moût peut être doux, acide ou sucré. On peut trouver ce vin sous plusieurs styles de vinification : sec, moelleux, ou flétri sur souche.
 Grappes
